--- a/files/SM1/K8/K8-P223-T1.xlsx
+++ b/files/SM1/K8/K8-P223-T1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770EFF30-333D-42E2-95AF-6D16653B046C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0787A40-DC72-4405-A0A0-4B8A5171132E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="2730" windowWidth="17720" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>saapua</t>
   </si>
   <si>
-    <t>katsella + P</t>
-  </si>
-  <si>
     <t>meistä</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Ahaa.</t>
   </si>
   <si>
-    <t>G + ääressä</t>
-  </si>
-  <si>
     <t>aina</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>siksi</t>
   </si>
   <si>
-    <t>maistua + lta/ltä</t>
-  </si>
-  <si>
     <t>tulinen</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>sopiva</t>
   </si>
   <si>
-    <t>näyttää + lta/ltä</t>
-  </si>
-  <si>
     <t>toivottavasti</t>
   </si>
   <si>
@@ -356,6 +344,22 @@
   </si>
   <si>
     <t>vieressä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ääressä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>katsella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maistua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>näyttää</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,18 +711,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +837,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,335 +845,335 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
